--- a/List of  the problems.xlsx
+++ b/List of  the problems.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zakar\Desktop\Codeforces\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zakar\Desktop\Project 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFF1B5D-9D97-4789-8B58-04C3B642AE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E572D6-563A-43BD-B85E-CA9BE0A4D5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
   <si>
     <t>Problem Name</t>
   </si>
@@ -55,13 +55,28 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>Vanya and Fence</t>
+  </si>
+  <si>
+    <t>Anton and Danik</t>
+  </si>
+  <si>
+    <t>Bear and Big Brother</t>
+  </si>
+  <si>
+    <t>Anton and Polyhedrons</t>
+  </si>
+  <si>
+    <t>Insomnia cure</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +104,13 @@
       <color theme="1"/>
       <name val="Bell MT"/>
       <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -118,11 +140,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -204,12 +228,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CA5F1A97-AFEA-489A-955D-416823A9E8DB}" name="Table1" displayName="Table1" ref="D1:F152" totalsRowShown="0" headerRowDxfId="4" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CA5F1A97-AFEA-489A-955D-416823A9E8DB}" name="Table1" displayName="Table1" ref="D1:F152" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="D1:F152" xr:uid="{CA5F1A97-AFEA-489A-955D-416823A9E8DB}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{081C5F2E-9548-4CD2-94C6-A0D2E00457D7}" name="Problem Name" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{A28ECB0A-2EBE-4A15-A078-AF6E09D2D7F1}" name="Source" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{8500A221-A8E7-4587-9237-B8E3D08CD1E6}" name="Difficulty" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{081C5F2E-9548-4CD2-94C6-A0D2E00457D7}" name="Problem Name" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{A28ECB0A-2EBE-4A15-A078-AF6E09D2D7F1}" name="Source" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{8500A221-A8E7-4587-9237-B8E3D08CD1E6}" name="Difficulty" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -481,7 +505,7 @@
   <dimension ref="D1:F152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,29 +582,59 @@
       </c>
     </row>
     <row r="7" spans="4:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="D7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="4:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="4:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="D9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="4:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="D10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="4:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="D11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="4:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="D12" s="3"/>
@@ -1299,11 +1353,16 @@
     <hyperlink ref="E4" r:id="rId8" display="https://codeforces.com/contest/231/problem/A" xr:uid="{C5EA7C13-2D4E-4BB4-BBE9-EB7DF0EE1756}"/>
     <hyperlink ref="E6" r:id="rId9" display="https://codeforces.com/contest/282/problem/A" xr:uid="{8774061E-774C-4791-A7B5-CE5AAC742B28}"/>
     <hyperlink ref="E5" r:id="rId10" display="https://codeforces.com/contest/158/problem/A" xr:uid="{2328579D-4BEB-4D22-93E0-83912486E8D7}"/>
+    <hyperlink ref="E7" r:id="rId11" display="https://codeforces.com/contest/677/problem/A" xr:uid="{0217D852-2188-4758-BB8C-51C531DED5BB}"/>
+    <hyperlink ref="E8" r:id="rId12" display="https://codeforces.com/contest/734/problem/A" xr:uid="{84392E5A-2849-4D2F-B20C-3EC30CAE5293}"/>
+    <hyperlink ref="E9" r:id="rId13" display="https://codeforces.com/contest/791/problem/A" xr:uid="{18A6A8BC-A09D-4CF8-B45C-71CED59F6292}"/>
+    <hyperlink ref="E10" r:id="rId14" display="https://codeforces.com/contest/785/problem/A" xr:uid="{DB660EAA-D981-49DF-8757-5A1DEEB68949}"/>
+    <hyperlink ref="E11" r:id="rId15" display="https://codeforces.com/contest/148/problem/A" xr:uid="{A4F7BAF9-987C-456B-95B8-5FD92AF4D1D2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
   <tableParts count="1">
-    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId17"/>
   </tableParts>
 </worksheet>
 </file>
--- a/List of  the problems.xlsx
+++ b/List of  the problems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zakar\Desktop\Project 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E572D6-563A-43BD-B85E-CA9BE0A4D5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BCD8A7-B05B-4EB5-9C06-E3DDA7FC6DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
   <si>
     <t>Problem Name</t>
   </si>
@@ -70,6 +70,21 @@
   </si>
   <si>
     <t>Insomnia cure</t>
+  </si>
+  <si>
+    <t>Petya and Strings</t>
+  </si>
+  <si>
+    <t>Helpful Maths</t>
+  </si>
+  <si>
+    <t>Word Capitalization</t>
+  </si>
+  <si>
+    <t>Stones on the Table</t>
+  </si>
+  <si>
+    <t>Boy or Girl</t>
   </si>
 </sst>
 </file>
@@ -140,13 +155,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -505,7 +523,7 @@
   <dimension ref="D1:F152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,7 +647,7 @@
       <c r="D11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="3" t="s">
@@ -637,29 +655,59 @@
       </c>
     </row>
     <row r="12" spans="4:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="D12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="4:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="D13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="4:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="D14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="15" spans="4:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="D15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="16" spans="4:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="D16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="17" spans="4:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="D17" s="3"/>
@@ -1358,11 +1406,16 @@
     <hyperlink ref="E9" r:id="rId13" display="https://codeforces.com/contest/791/problem/A" xr:uid="{18A6A8BC-A09D-4CF8-B45C-71CED59F6292}"/>
     <hyperlink ref="E10" r:id="rId14" display="https://codeforces.com/contest/785/problem/A" xr:uid="{DB660EAA-D981-49DF-8757-5A1DEEB68949}"/>
     <hyperlink ref="E11" r:id="rId15" display="https://codeforces.com/contest/148/problem/A" xr:uid="{A4F7BAF9-987C-456B-95B8-5FD92AF4D1D2}"/>
+    <hyperlink ref="E12" r:id="rId16" display="https://codeforces.com/contest/112/problem/A" xr:uid="{D542C50B-9C9C-4BFE-B6C1-2A9219177DE5}"/>
+    <hyperlink ref="E13" r:id="rId17" display="https://codeforces.com/contest/339/problem/A" xr:uid="{3B6A33C1-5100-432E-962B-B7751AD35EDA}"/>
+    <hyperlink ref="E14" r:id="rId18" display="https://codeforces.com/contest/281/problem/A" xr:uid="{1F162055-452E-4B8C-929D-832677C56F5A}"/>
+    <hyperlink ref="E15" r:id="rId19" display="https://codeforces.com/contest/266/problem/A" xr:uid="{DAAEC003-ECDE-434E-97AD-7D2BCC21CBEB}"/>
+    <hyperlink ref="E16" r:id="rId20" display="https://codeforces.com/contest/236/problem/A" xr:uid="{542F1585-C667-4687-B696-1B437F27C0A0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
   <tableParts count="1">
-    <tablePart r:id="rId17"/>
+    <tablePart r:id="rId22"/>
   </tableParts>
 </worksheet>
 </file>
--- a/List of  the problems.xlsx
+++ b/List of  the problems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zakar\Desktop\Project 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BCD8A7-B05B-4EB5-9C06-E3DDA7FC6DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6AB624E-F253-4C8A-9EF7-2A2DAE24DB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/List of  the problems.xlsx
+++ b/List of  the problems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zakar\Desktop\Project 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6AB624E-F253-4C8A-9EF7-2A2DAE24DB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04AA9D21-7800-41E7-8E60-26BAA047D5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="25">
   <si>
     <t>Problem Name</t>
   </si>
@@ -85,13 +85,28 @@
   </si>
   <si>
     <t>Boy or Girl</t>
+  </si>
+  <si>
+    <t>Soldier and Bananas</t>
+  </si>
+  <si>
+    <t>Is your horseshoe on the other hoof?</t>
+  </si>
+  <si>
+    <t> Hulk</t>
+  </si>
+  <si>
+    <t>Ultra-Fast Mathematician</t>
+  </si>
+  <si>
+    <t>Calculating Function</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +142,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -155,7 +177,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -165,6 +187,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -522,14 +545,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{268EC9E1-576B-4D3E-9533-8F1EB4DB00EC}">
   <dimension ref="D1:F152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="24.140625" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
     <col min="6" max="6" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -710,29 +733,59 @@
       </c>
     </row>
     <row r="17" spans="4:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="D17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="18" spans="4:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="D18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="19" spans="4:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="D19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="20" spans="4:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="D20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="21" spans="4:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="D21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="22" spans="4:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="D22" s="3"/>
@@ -1411,11 +1464,16 @@
     <hyperlink ref="E14" r:id="rId18" display="https://codeforces.com/contest/281/problem/A" xr:uid="{1F162055-452E-4B8C-929D-832677C56F5A}"/>
     <hyperlink ref="E15" r:id="rId19" display="https://codeforces.com/contest/266/problem/A" xr:uid="{DAAEC003-ECDE-434E-97AD-7D2BCC21CBEB}"/>
     <hyperlink ref="E16" r:id="rId20" display="https://codeforces.com/contest/236/problem/A" xr:uid="{542F1585-C667-4687-B696-1B437F27C0A0}"/>
+    <hyperlink ref="E17" r:id="rId21" display="https://codeforces.com/contest/546/problem/A" xr:uid="{0EFA42BB-2199-4D47-8AA1-83F3B30ABD38}"/>
+    <hyperlink ref="E18" r:id="rId22" display="https://codeforces.com/contest/228/problem/A" xr:uid="{7A23B24D-E2DA-4655-8A06-68F1E0B895F8}"/>
+    <hyperlink ref="E19" r:id="rId23" display="https://codeforces.com/contest/705/problem/A" xr:uid="{20B79EBA-5A62-438D-807D-0E85CAFF4CD0}"/>
+    <hyperlink ref="E20" r:id="rId24" display="https://codeforces.com/contest/61/problem/A" xr:uid="{66D530F6-9150-4F94-B4D0-D90FC0F6FE3C}"/>
+    <hyperlink ref="E21" r:id="rId25" display="https://codeforces.com/contest/486/problem/A" xr:uid="{03261F06-C1D4-43B4-9538-8B82CA9F5874}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId21"/>
+  <pageSetup orientation="portrait" r:id="rId26"/>
   <tableParts count="1">
-    <tablePart r:id="rId22"/>
+    <tablePart r:id="rId27"/>
   </tableParts>
 </worksheet>
 </file>
--- a/List of  the problems.xlsx
+++ b/List of  the problems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zakar\Desktop\Project 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04AA9D21-7800-41E7-8E60-26BAA047D5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6478D3FC-8283-404D-B765-62C6091E1F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="30">
   <si>
     <t>Problem Name</t>
   </si>
@@ -100,13 +100,28 @@
   </si>
   <si>
     <t>Calculating Function</t>
+  </si>
+  <si>
+    <t> Minutes Before the New Year</t>
+  </si>
+  <si>
+    <t>Presents</t>
+  </si>
+  <si>
+    <t>Pangram</t>
+  </si>
+  <si>
+    <t>Anton and Letters</t>
+  </si>
+  <si>
+    <t>Minutes Before the New Year</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +164,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -177,7 +199,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -188,6 +210,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -545,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{268EC9E1-576B-4D3E-9533-8F1EB4DB00EC}">
   <dimension ref="D1:F152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,29 +811,59 @@
       </c>
     </row>
     <row r="22" spans="4:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="D22" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="23" spans="4:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="D23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="24" spans="4:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="D24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="25" spans="4:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="D25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="26" spans="4:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="D26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="27" spans="4:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="D27" s="3"/>
@@ -1469,11 +1522,16 @@
     <hyperlink ref="E19" r:id="rId23" display="https://codeforces.com/contest/705/problem/A" xr:uid="{20B79EBA-5A62-438D-807D-0E85CAFF4CD0}"/>
     <hyperlink ref="E20" r:id="rId24" display="https://codeforces.com/contest/61/problem/A" xr:uid="{66D530F6-9150-4F94-B4D0-D90FC0F6FE3C}"/>
     <hyperlink ref="E21" r:id="rId25" display="https://codeforces.com/contest/486/problem/A" xr:uid="{03261F06-C1D4-43B4-9538-8B82CA9F5874}"/>
+    <hyperlink ref="E22" r:id="rId26" display="https://codeforces.com/contest/1283/problem/A" xr:uid="{104EE4D3-FA34-453A-881B-27DC6EAD9A9C}"/>
+    <hyperlink ref="E23" r:id="rId27" display="https://codeforces.com/contest/136/problem/A" xr:uid="{68D08D18-3B31-4AE2-BF08-9F75EDC8DCF6}"/>
+    <hyperlink ref="E24" r:id="rId28" display="https://codeforces.com/contest/520/problem/A" xr:uid="{1F44DFAD-58B5-40BA-8BB6-798B97E37FA9}"/>
+    <hyperlink ref="E25" r:id="rId29" display="https://codeforces.com/contest/443/problem/A" xr:uid="{8F7742DD-CABC-4170-99E3-9426F07EE3F3}"/>
+    <hyperlink ref="E26" r:id="rId30" display="https://codeforces.com/contest/1283/problem/A" xr:uid="{D4EF6C67-C015-4AA8-A23A-BED1F7EEE0A2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId26"/>
+  <pageSetup orientation="portrait" r:id="rId31"/>
   <tableParts count="1">
-    <tablePart r:id="rId27"/>
+    <tablePart r:id="rId32"/>
   </tableParts>
 </worksheet>
 </file>
--- a/List of  the problems.xlsx
+++ b/List of  the problems.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zakar\Desktop\Project 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zakar\OneDrive\Desktop\Problem_solving-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6478D3FC-8283-404D-B765-62C6091E1F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122F0CC7-A2D6-4FB1-B9FB-78E232A55133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="34">
   <si>
     <t>Problem Name</t>
   </si>
@@ -115,13 +115,25 @@
   </si>
   <si>
     <t>Minutes Before the New Year</t>
+  </si>
+  <si>
+    <t>Beautiful Matrix</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/263/problem/A</t>
+  </si>
+  <si>
+    <t>Gravity Flip</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/contest/405/problem/A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +183,18 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -199,7 +223,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -211,6 +235,8 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -569,7 +595,7 @@
   <dimension ref="D1:F152"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,15 +891,27 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="4:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+    <row r="27" spans="4:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D27" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="28" spans="4:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="D28" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="29" spans="4:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="D29" s="3"/>
@@ -1527,11 +1565,12 @@
     <hyperlink ref="E24" r:id="rId28" display="https://codeforces.com/contest/520/problem/A" xr:uid="{1F44DFAD-58B5-40BA-8BB6-798B97E37FA9}"/>
     <hyperlink ref="E25" r:id="rId29" display="https://codeforces.com/contest/443/problem/A" xr:uid="{8F7742DD-CABC-4170-99E3-9426F07EE3F3}"/>
     <hyperlink ref="E26" r:id="rId30" display="https://codeforces.com/contest/1283/problem/A" xr:uid="{D4EF6C67-C015-4AA8-A23A-BED1F7EEE0A2}"/>
+    <hyperlink ref="E27" r:id="rId31" xr:uid="{5BD48735-EE33-4213-9E01-A258A62062F4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId31"/>
+  <pageSetup orientation="portrait" r:id="rId32"/>
   <tableParts count="1">
-    <tablePart r:id="rId32"/>
+    <tablePart r:id="rId33"/>
   </tableParts>
 </worksheet>
 </file>
--- a/List of  the problems.xlsx
+++ b/List of  the problems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zakar\OneDrive\Desktop\Problem_solving-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122F0CC7-A2D6-4FB1-B9FB-78E232A55133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D731A88-BC97-44C8-96B4-4BE15FA65584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="42">
   <si>
     <t>Problem Name</t>
   </si>
@@ -127,13 +127,37 @@
   </si>
   <si>
     <t>http://codeforces.com/contest/405/problem/A</t>
+  </si>
+  <si>
+    <t>Magnets</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/contest/344/problem/A</t>
+  </si>
+  <si>
+    <t>Sereja and Dima</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/contest/381/problem/A</t>
+  </si>
+  <si>
+    <t>Police Recruits</t>
+  </si>
+  <si>
+    <t>Black Square</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/contest/427/problem/A</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/contest/431/problem/A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +219,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Bell MT"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -223,7 +253,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -237,6 +267,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -594,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{268EC9E1-576B-4D3E-9533-8F1EB4DB00EC}">
   <dimension ref="D1:F152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -913,25 +944,49 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="4:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="4:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
+    <row r="29" spans="4:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D29" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="4:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D30" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="31" spans="4:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="D31" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="32" spans="4:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+      <c r="D32" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="33" spans="4:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="D33" s="3"/>
@@ -1566,11 +1621,15 @@
     <hyperlink ref="E25" r:id="rId29" display="https://codeforces.com/contest/443/problem/A" xr:uid="{8F7742DD-CABC-4170-99E3-9426F07EE3F3}"/>
     <hyperlink ref="E26" r:id="rId30" display="https://codeforces.com/contest/1283/problem/A" xr:uid="{D4EF6C67-C015-4AA8-A23A-BED1F7EEE0A2}"/>
     <hyperlink ref="E27" r:id="rId31" xr:uid="{5BD48735-EE33-4213-9E01-A258A62062F4}"/>
+    <hyperlink ref="E29" r:id="rId32" xr:uid="{37C2E17F-3F80-41F2-835B-F942659B1379}"/>
+    <hyperlink ref="E30" r:id="rId33" xr:uid="{4440FBFF-53B2-45CC-8123-3785DEBD7BEC}"/>
+    <hyperlink ref="E31" r:id="rId34" xr:uid="{8B81643F-DFCF-4467-983B-9B29EE26AD83}"/>
+    <hyperlink ref="E32" r:id="rId35" xr:uid="{B55D4EBE-8330-458D-AE23-458814309627}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId32"/>
+  <pageSetup orientation="portrait" r:id="rId36"/>
   <tableParts count="1">
-    <tablePart r:id="rId33"/>
+    <tablePart r:id="rId37"/>
   </tableParts>
 </worksheet>
 </file>
--- a/List of  the problems.xlsx
+++ b/List of  the problems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zakar\OneDrive\Desktop\Problem_solving-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D731A88-BC97-44C8-96B4-4BE15FA65584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90776B0-7404-4968-906E-35C33E0FD059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="44">
   <si>
     <t>Problem Name</t>
   </si>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>http://codeforces.com/contest/431/problem/A</t>
+  </si>
+  <si>
+    <t>Games</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/contest/268/problem/A</t>
   </si>
 </sst>
 </file>
@@ -625,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{268EC9E1-576B-4D3E-9533-8F1EB4DB00EC}">
   <dimension ref="D1:F152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,10 +994,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="4:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
+    <row r="33" spans="4:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D33" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="34" spans="4:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="D34" s="3"/>
@@ -1625,11 +1637,12 @@
     <hyperlink ref="E30" r:id="rId33" xr:uid="{4440FBFF-53B2-45CC-8123-3785DEBD7BEC}"/>
     <hyperlink ref="E31" r:id="rId34" xr:uid="{8B81643F-DFCF-4467-983B-9B29EE26AD83}"/>
     <hyperlink ref="E32" r:id="rId35" xr:uid="{B55D4EBE-8330-458D-AE23-458814309627}"/>
+    <hyperlink ref="E33" r:id="rId36" xr:uid="{5A2E5D96-643A-464F-9175-B0289E1D2953}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId36"/>
+  <pageSetup orientation="portrait" r:id="rId37"/>
   <tableParts count="1">
-    <tablePart r:id="rId37"/>
+    <tablePart r:id="rId38"/>
   </tableParts>
 </worksheet>
 </file>
--- a/List of  the problems.xlsx
+++ b/List of  the problems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zakar\OneDrive\Desktop\Problem_solving-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90776B0-7404-4968-906E-35C33E0FD059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246335B2-7147-4EF6-9419-B30555EE6E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="48">
   <si>
     <t>Problem Name</t>
   </si>
@@ -157,6 +157,18 @@
   </si>
   <si>
     <t>http://codeforces.com/contest/268/problem/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/686/problem/A</t>
+  </si>
+  <si>
+    <t>Free Ice Cream</t>
+  </si>
+  <si>
+    <t>Juicer</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/709/problem/A</t>
   </si>
 </sst>
 </file>
@@ -631,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{268EC9E1-576B-4D3E-9533-8F1EB4DB00EC}">
   <dimension ref="D1:F152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,14 +1018,26 @@
       </c>
     </row>
     <row r="34" spans="4:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
+      <c r="D34" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="35" spans="4:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
+      <c r="D35" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="36" spans="4:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="D36" s="3"/>
@@ -1638,11 +1662,13 @@
     <hyperlink ref="E31" r:id="rId34" xr:uid="{8B81643F-DFCF-4467-983B-9B29EE26AD83}"/>
     <hyperlink ref="E32" r:id="rId35" xr:uid="{B55D4EBE-8330-458D-AE23-458814309627}"/>
     <hyperlink ref="E33" r:id="rId36" xr:uid="{5A2E5D96-643A-464F-9175-B0289E1D2953}"/>
+    <hyperlink ref="D35" r:id="rId37" display="https://codeforces.com/contest/709/problem/A" xr:uid="{1A1FE06D-EF38-46E0-9DF1-30669E55049B}"/>
+    <hyperlink ref="E35" r:id="rId38" xr:uid="{AF2E0113-887C-4298-955E-201444F97518}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId37"/>
+  <pageSetup orientation="portrait" r:id="rId39"/>
   <tableParts count="1">
-    <tablePart r:id="rId38"/>
+    <tablePart r:id="rId40"/>
   </tableParts>
 </worksheet>
 </file>
--- a/List of  the problems.xlsx
+++ b/List of  the problems.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zakar\OneDrive\Desktop\Problem_solving-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246335B2-7147-4EF6-9419-B30555EE6E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BF0FCA-CAF8-4F8D-8513-6617266F677C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="50">
   <si>
     <t>Problem Name</t>
   </si>
@@ -169,13 +169,19 @@
   </si>
   <si>
     <t>https://codeforces.com/contest/709/problem/A</t>
+  </si>
+  <si>
+    <t>Mahmoud and Longest Uncommon Subsequence</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/contest/766/problem/A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,6 +249,12 @@
       <name val="Bell MT"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -271,7 +283,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -286,6 +298,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -644,7 +657,7 @@
   <dimension ref="D1:F152"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,9 +1053,15 @@
       </c>
     </row>
     <row r="36" spans="4:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
+      <c r="D36" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="37" spans="4:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="D37" s="3"/>
@@ -1664,11 +1683,12 @@
     <hyperlink ref="E33" r:id="rId36" xr:uid="{5A2E5D96-643A-464F-9175-B0289E1D2953}"/>
     <hyperlink ref="D35" r:id="rId37" display="https://codeforces.com/contest/709/problem/A" xr:uid="{1A1FE06D-EF38-46E0-9DF1-30669E55049B}"/>
     <hyperlink ref="E35" r:id="rId38" xr:uid="{AF2E0113-887C-4298-955E-201444F97518}"/>
+    <hyperlink ref="E36" r:id="rId39" xr:uid="{0AD94A3F-3B47-47A9-A6B2-8196C6DCCFD8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId39"/>
+  <pageSetup orientation="portrait" r:id="rId40"/>
   <tableParts count="1">
-    <tablePart r:id="rId40"/>
+    <tablePart r:id="rId41"/>
   </tableParts>
 </worksheet>
 </file>